--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -64421,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1144"/>
+  <dimension ref="A1:R1146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64021,7 +64021,7 @@
         <v>20</v>
       </c>
       <c r="O1135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1135" t="n">
         <v>0</v>
@@ -64533,7 +64533,117 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>1105</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>1107.599975585938</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>1077.75</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>1083.099975585938</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>1083.099975585938</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>2907482</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>1046.099975585938</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>1061.300048828125</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>1027.150024414062</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>1042.900024414062</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>1042.900024414062</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>7213943</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1147"/>
+  <dimension ref="A1:R1148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64701,7 +64701,63 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>1035.400024414062</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>1037.75</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>998</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>1020.349975585938</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>1020.349975585938</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>4781666</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -64757,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -64813,7 +64813,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -65093,7 +65093,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65147,7 +65149,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65201,7 +65205,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65255,7 +65261,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65309,7 +65317,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1158"/>
+  <dimension ref="A1:R1159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65321,6 +65321,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>1038.650024414062</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>1018.700012207031</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>1032.400024414062</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>2484485</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1159"/>
+  <dimension ref="A1:R1160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64861,7 +64861,7 @@
         <v>23</v>
       </c>
       <c r="O1150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1150" t="n">
         <v>0</v>
@@ -65373,7 +65373,63 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>1035.849975585938</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>1037</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>1002.900024414062</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>1014.650024414062</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>1014.650024414062</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>2548118</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1160"/>
+  <dimension ref="A1:R1167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65429,7 +65429,387 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>1017.349975585938</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>1027</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>1007.200012207031</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>1015.599975585938</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>1015.599975585938</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>1694557</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>1018.799987792969</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>1046</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>1008.200012207031</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>1012.299987792969</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>1012.299987792969</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>5664314</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>1037.949951171875</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>1007.599975585938</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>1010.25</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>1010.25</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>4131226</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>1018.799987792969</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>987.0999755859375</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>995.0999755859375</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>995.0999755859375</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>3163136</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>1002.75</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>988</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>990.4500122070312</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>990.4500122070312</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>3137677</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>991</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>1002.349975585938</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>983.3499755859375</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>991.25</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>991.25</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>2402997</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>995.7000122070312</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>1007.5</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>988</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>989.25</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>989.25</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>3776983</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -65485,7 +65485,9 @@
       <c r="Q1161" t="n">
         <v>0</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65539,7 +65541,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65593,7 +65597,9 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65647,7 +65653,9 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65701,7 +65709,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65755,7 +65765,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65809,7 +65821,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1167"/>
+  <dimension ref="A1:R1172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65533,7 +65533,7 @@
         <v>25</v>
       </c>
       <c r="O1162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1162" t="n">
         <v>0</v>
@@ -65824,6 +65824,276 @@
       <c r="R1167" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>990</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>999.25</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>989.0499877929688</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>992.8499755859375</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>992.8499755859375</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>1815971</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>995.2000122070312</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>1014.5</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>991.0499877929688</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>1006.599975585938</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>1006.599975585938</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>3155918</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>1007.400024414062</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>1001.099975585938</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>1004.25</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>1004.25</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>1904860</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>1009.799987792969</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>1016.900024414062</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>1002.599975585938</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>1006.049987792969</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>1006.049987792969</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>1498265</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>1034.449951171875</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>1003.049987792969</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>1026.199951171875</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>1026.199951171875</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>4667591</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1172"/>
+  <dimension ref="A1:R1176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65757,7 +65757,7 @@
         <v>26</v>
       </c>
       <c r="O1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1166" t="n">
         <v>0</v>
@@ -65877,7 +65877,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65931,7 +65933,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65985,7 +65989,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -66039,7 +66045,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -66093,7 +66101,225 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>1051.75</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>1027.800048828125</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>1045.599975585938</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>1045.599975585938</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>6083179</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>1052.849975585938</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>1055</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>1023.200012207031</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>1027.900024414062</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>1027.900024414062</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>2638133</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>1032.449951171875</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>1037.300048828125</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>993.75</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>1021.849975585938</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>1021.849975585938</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>2295822</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>1030.25</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>1041.800048828125</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>1026.949951171875</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>1029.400024414062</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>1029.400024414062</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>2327535</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1176"/>
+  <dimension ref="A1:R1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66157,7 +66157,9 @@
       <c r="Q1173" t="n">
         <v>2</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66211,7 +66213,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66265,7 +66269,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66319,7 +66325,603 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>1059.449951171875</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>1022.25</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>1043.050048828125</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>1043.050048828125</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>4997763</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>1046.849975585938</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>1047.400024414062</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>1035.050048828125</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>1037.900024414062</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>1037.900024414062</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>3052646</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>1042</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>1044.949951171875</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>1024.5</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>1029</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>1029</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>1242326</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>1027.849975585938</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>1028.75</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>1004.099975585938</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>1010.25</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>1010.25</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>1850857</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>1012.650024414062</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>985</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>989.0999755859375</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>989.0999755859375</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>3195475</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>990</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>1011.950012207031</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>971</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>1006.25</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>1006.25</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>2819852</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>1015.700012207031</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>1015.700012207031</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>940.0499877929688</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>972.9000244140625</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>972.9000244140625</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>5290749</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>974.7000122070312</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>988.25</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>968.6500244140625</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>974.2000122070312</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>974.2000122070312</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>2446557</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>970.9500122070312</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>972.5999755859375</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>954</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>969.1500244140625</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>969.1500244140625</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>1573736</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>976</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>991.3499755859375</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>972.9000244140625</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>984.1500244140625</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>984.1500244140625</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>1990326</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>990</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>1000.799987792969</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>985.2999877929688</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>991.4500122070312</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>991.4500122070312</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>1758672</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1187"/>
+  <dimension ref="A1:R1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66381,7 +66381,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66435,7 +66437,9 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
@@ -66489,7 +66493,9 @@
       <c r="Q1179" t="n">
         <v>0</v>
       </c>
-      <c r="R1179" t="inlineStr"/>
+      <c r="R1179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -66543,7 +66549,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66597,7 +66605,9 @@
       <c r="Q1181" t="n">
         <v>0</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
@@ -66651,7 +66661,9 @@
       <c r="Q1182" t="n">
         <v>0</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66705,7 +66717,9 @@
       <c r="Q1183" t="n">
         <v>0</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66759,7 +66773,9 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
@@ -66813,7 +66829,9 @@
       <c r="Q1185" t="n">
         <v>0</v>
       </c>
-      <c r="R1185" t="inlineStr"/>
+      <c r="R1185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
@@ -66867,7 +66885,9 @@
       <c r="Q1186" t="n">
         <v>0</v>
       </c>
-      <c r="R1186" t="inlineStr"/>
+      <c r="R1186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
@@ -66921,7 +66941,495 @@
       <c r="Q1187" t="n">
         <v>0</v>
       </c>
-      <c r="R1187" t="inlineStr"/>
+      <c r="R1187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>994.5</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>998</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>988.4500122070312</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>989.5999755859375</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>989.5999755859375</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>979935</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>990</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>994.4000244140625</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>985.5</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>987.6500244140625</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>987.6500244140625</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>994897</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>989.9000244140625</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>995</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>976</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>980.5</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>980.5</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>998861</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>972.75</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>976.5</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>963.6500244140625</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>966.4000244140625</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>966.4000244140625</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>1102487</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>945</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>954</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>921.1500244140625</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>925.5</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>925.5</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>2629317</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>925.5</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>946.75</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>915.9000244140625</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>919.1500244140625</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>919.1500244140625</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>1708694</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>927.8499755859375</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>934.0999755859375</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>921.2999877929688</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>930.8499755859375</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>930.8499755859375</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>1174614</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>930.8499755859375</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>939.9000244140625</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>923.5499877929688</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>925.7999877929688</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>925.7999877929688</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>1150268</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>932.5499877929688</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>935.6500244140625</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>926</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>926.9500122070312</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>926.9500122070312</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>569335</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1196" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1196"/>
+  <dimension ref="A1:R1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66997,7 +66997,9 @@
       <c r="Q1188" t="n">
         <v>0</v>
       </c>
-      <c r="R1188" t="inlineStr"/>
+      <c r="R1188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
@@ -67051,7 +67053,9 @@
       <c r="Q1189" t="n">
         <v>0</v>
       </c>
-      <c r="R1189" t="inlineStr"/>
+      <c r="R1189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
@@ -67105,7 +67109,9 @@
       <c r="Q1190" t="n">
         <v>0</v>
       </c>
-      <c r="R1190" t="inlineStr"/>
+      <c r="R1190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
@@ -67159,7 +67165,9 @@
       <c r="Q1191" t="n">
         <v>0</v>
       </c>
-      <c r="R1191" t="inlineStr"/>
+      <c r="R1191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
@@ -67213,7 +67221,9 @@
       <c r="Q1192" t="n">
         <v>0</v>
       </c>
-      <c r="R1192" t="inlineStr"/>
+      <c r="R1192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
@@ -67267,7 +67277,9 @@
       <c r="Q1193" t="n">
         <v>0</v>
       </c>
-      <c r="R1193" t="inlineStr"/>
+      <c r="R1193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
@@ -67321,7 +67333,9 @@
       <c r="Q1194" t="n">
         <v>0</v>
       </c>
-      <c r="R1194" t="inlineStr"/>
+      <c r="R1194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
@@ -67375,7 +67389,9 @@
       <c r="Q1195" t="n">
         <v>0</v>
       </c>
-      <c r="R1195" t="inlineStr"/>
+      <c r="R1195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
@@ -67429,7 +67445,225 @@
       <c r="Q1196" t="n">
         <v>0</v>
       </c>
-      <c r="R1196" t="inlineStr"/>
+      <c r="R1196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>926.4500122070312</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>933.25</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>915.0499877929688</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>924.4000244140625</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>924.4000244140625</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>1267706</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1197" t="inlineStr"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>929.75</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>931.4500122070312</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>911.2999877929688</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>918.4500122070312</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>918.4500122070312</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>1973513</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>928</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>929</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>906.2999877929688</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>909.8499755859375</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>909.8499755859375</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>1764250</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>914.9000244140625</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>925.9000244140625</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>911.2999877929688</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>924.75</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>924.75</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>906307</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1200"/>
+  <dimension ref="A1:R1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67501,7 +67501,9 @@
       <c r="Q1197" t="n">
         <v>0</v>
       </c>
-      <c r="R1197" t="inlineStr"/>
+      <c r="R1197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
@@ -67555,7 +67557,9 @@
       <c r="Q1198" t="n">
         <v>0</v>
       </c>
-      <c r="R1198" t="inlineStr"/>
+      <c r="R1198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
@@ -67609,7 +67613,9 @@
       <c r="Q1199" t="n">
         <v>0</v>
       </c>
-      <c r="R1199" t="inlineStr"/>
+      <c r="R1199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
@@ -67663,7 +67669,279 @@
       <c r="Q1200" t="n">
         <v>0</v>
       </c>
-      <c r="R1200" t="inlineStr"/>
+      <c r="R1200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>926</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>940.7000122070312</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>925.1500244140625</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>937.7000122070312</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>933.707275390625</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>1252866</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>940.0499877929688</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>942.4000244140625</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>926.4000244140625</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>931</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>927.0357666015625</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>1191423</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>930.0499877929688</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>938.7000122070312</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>927.75</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>934.7999877929688</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>930.819580078125</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>943091</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>935</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>942.2999877929688</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>932.3499755859375</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>939.4000244140625</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>935.4000244140625</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>841250</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>935</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>938.0999755859375</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>922</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>923.2999877929688</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>923.2999877929688</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>1245263</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1205" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1205"/>
+  <dimension ref="A1:R1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="R200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -12678,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="R218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -16262,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="R282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -22254,7 +22254,7 @@
         <v>1</v>
       </c>
       <c r="R389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -33062,7 +33062,7 @@
         <v>0</v>
       </c>
       <c r="R582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -34574,7 +34574,7 @@
         <v>0</v>
       </c>
       <c r="R609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
@@ -38550,7 +38550,7 @@
         <v>1</v>
       </c>
       <c r="R680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -41910,7 +41910,7 @@
         <v>2</v>
       </c>
       <c r="R740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741">
@@ -43870,7 +43870,7 @@
         <v>2</v>
       </c>
       <c r="R775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776">
@@ -47062,7 +47062,7 @@
         <v>0</v>
       </c>
       <c r="R832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833">
@@ -49414,7 +49414,7 @@
         <v>1</v>
       </c>
       <c r="R874" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875">
@@ -51206,7 +51206,7 @@
         <v>1</v>
       </c>
       <c r="R906" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907">
@@ -51710,7 +51710,7 @@
         <v>0</v>
       </c>
       <c r="R915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916">
@@ -52382,7 +52382,7 @@
         <v>2</v>
       </c>
       <c r="R927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -55574,7 +55574,7 @@
         <v>2</v>
       </c>
       <c r="R984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985">
@@ -56078,7 +56078,7 @@
         <v>1</v>
       </c>
       <c r="R993" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994">
@@ -56526,7 +56526,7 @@
         <v>2</v>
       </c>
       <c r="R1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -57310,7 +57310,7 @@
         <v>1</v>
       </c>
       <c r="R1015" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016">
@@ -60502,7 +60502,7 @@
         <v>1</v>
       </c>
       <c r="R1072" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073">
@@ -60614,7 +60614,7 @@
         <v>2</v>
       </c>
       <c r="R1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -61398,7 +61398,7 @@
         <v>0</v>
       </c>
       <c r="R1088" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089">
@@ -62574,7 +62574,7 @@
         <v>0</v>
       </c>
       <c r="R1109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110">
@@ -64646,7 +64646,7 @@
         <v>0</v>
       </c>
       <c r="R1146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147">
@@ -65486,7 +65486,7 @@
         <v>0</v>
       </c>
       <c r="R1161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162">
@@ -66158,7 +66158,7 @@
         <v>2</v>
       </c>
       <c r="R1173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174">
@@ -67605,7 +67605,7 @@
         <v>33</v>
       </c>
       <c r="O1199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1199" t="n">
         <v>0</v>
@@ -67725,7 +67725,9 @@
       <c r="Q1201" t="n">
         <v>0</v>
       </c>
-      <c r="R1201" t="inlineStr"/>
+      <c r="R1201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
@@ -67779,7 +67781,9 @@
       <c r="Q1202" t="n">
         <v>0</v>
       </c>
-      <c r="R1202" t="inlineStr"/>
+      <c r="R1202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
@@ -67833,7 +67837,9 @@
       <c r="Q1203" t="n">
         <v>0</v>
       </c>
-      <c r="R1203" t="inlineStr"/>
+      <c r="R1203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
@@ -67887,7 +67893,9 @@
       <c r="Q1204" t="n">
         <v>0</v>
       </c>
-      <c r="R1204" t="inlineStr"/>
+      <c r="R1204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
@@ -67941,7 +67949,225 @@
       <c r="Q1205" t="n">
         <v>0</v>
       </c>
-      <c r="R1205" t="inlineStr"/>
+      <c r="R1205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>927.7999877929688</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>931.6500244140625</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>925.0999755859375</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>931</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>931</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>765618</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>933.5</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>933.5</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>925.1500244140625</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>930.4000244140625</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>930.4000244140625</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>707733</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>931.0999755859375</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>939.5499877929688</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>925.5</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>927</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>927</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>1063625</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>927.4000244140625</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>928.5</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>914.4000244140625</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>923.0499877929688</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>923.0499877929688</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>1359305</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1209" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1209"/>
+  <dimension ref="A1:R1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="R200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -12678,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="R218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -16262,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="R282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -22254,7 +22254,7 @@
         <v>1</v>
       </c>
       <c r="R389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -33062,7 +33062,7 @@
         <v>0</v>
       </c>
       <c r="R582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -34574,7 +34574,7 @@
         <v>0</v>
       </c>
       <c r="R609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -38550,7 +38550,7 @@
         <v>1</v>
       </c>
       <c r="R680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -41910,7 +41910,7 @@
         <v>2</v>
       </c>
       <c r="R740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741">
@@ -43870,7 +43870,7 @@
         <v>2</v>
       </c>
       <c r="R775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776">
@@ -47062,7 +47062,7 @@
         <v>0</v>
       </c>
       <c r="R832" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833">
@@ -49414,7 +49414,7 @@
         <v>1</v>
       </c>
       <c r="R874" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875">
@@ -51206,7 +51206,7 @@
         <v>1</v>
       </c>
       <c r="R906" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907">
@@ -51710,7 +51710,7 @@
         <v>0</v>
       </c>
       <c r="R915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916">
@@ -52382,7 +52382,7 @@
         <v>2</v>
       </c>
       <c r="R927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928">
@@ -55574,7 +55574,7 @@
         <v>2</v>
       </c>
       <c r="R984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985">
@@ -56078,7 +56078,7 @@
         <v>1</v>
       </c>
       <c r="R993" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994">
@@ -56526,7 +56526,7 @@
         <v>2</v>
       </c>
       <c r="R1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -57310,7 +57310,7 @@
         <v>1</v>
       </c>
       <c r="R1015" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016">
@@ -60502,7 +60502,7 @@
         <v>1</v>
       </c>
       <c r="R1072" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073">
@@ -60614,7 +60614,7 @@
         <v>2</v>
       </c>
       <c r="R1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075">
@@ -61398,7 +61398,7 @@
         <v>0</v>
       </c>
       <c r="R1088" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -62574,7 +62574,7 @@
         <v>0</v>
       </c>
       <c r="R1109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110">
@@ -64646,7 +64646,7 @@
         <v>0</v>
       </c>
       <c r="R1146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147">
@@ -65486,7 +65486,7 @@
         <v>0</v>
       </c>
       <c r="R1161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162">
@@ -66158,7 +66158,7 @@
         <v>2</v>
       </c>
       <c r="R1173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174">
@@ -68005,7 +68005,9 @@
       <c r="Q1206" t="n">
         <v>0</v>
       </c>
-      <c r="R1206" t="inlineStr"/>
+      <c r="R1206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
@@ -68059,7 +68061,9 @@
       <c r="Q1207" t="n">
         <v>0</v>
       </c>
-      <c r="R1207" t="inlineStr"/>
+      <c r="R1207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
@@ -68113,7 +68117,9 @@
       <c r="Q1208" t="n">
         <v>0</v>
       </c>
-      <c r="R1208" t="inlineStr"/>
+      <c r="R1208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
@@ -68167,7 +68173,333 @@
       <c r="Q1209" t="n">
         <v>0</v>
       </c>
-      <c r="R1209" t="inlineStr"/>
+      <c r="R1209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>925</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>948</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>921.7999877929688</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>932.7999877929688</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>932.7999877929688</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>2984431</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>938.9500122070312</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>938.9500122070312</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>928</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>937</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>937</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>1054893</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>937.9500122070312</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>949</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>937.7999877929688</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>944.1500244140625</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>944.1500244140625</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>1573400</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1212" t="inlineStr"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>934.0499877929688</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>941</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>932.2000122070312</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>939.2000122070312</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>939.2000122070312</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>1562616</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>940</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>952.5499877929688</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>938.7999877929688</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>945.25</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>945.25</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>1929930</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>945.5999755859375</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>948.2000122070312</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>925.4500122070312</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>936.5</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>936.5</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>2639411</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1215" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1215"/>
+  <dimension ref="A1:R1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68229,7 +68229,9 @@
       <c r="Q1210" t="n">
         <v>0</v>
       </c>
-      <c r="R1210" t="inlineStr"/>
+      <c r="R1210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
@@ -68283,7 +68285,9 @@
       <c r="Q1211" t="n">
         <v>0</v>
       </c>
-      <c r="R1211" t="inlineStr"/>
+      <c r="R1211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
@@ -68337,7 +68341,9 @@
       <c r="Q1212" t="n">
         <v>0</v>
       </c>
-      <c r="R1212" t="inlineStr"/>
+      <c r="R1212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
@@ -68391,7 +68397,9 @@
       <c r="Q1213" t="n">
         <v>0</v>
       </c>
-      <c r="R1213" t="inlineStr"/>
+      <c r="R1213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
@@ -68445,7 +68453,9 @@
       <c r="Q1214" t="n">
         <v>0</v>
       </c>
-      <c r="R1214" t="inlineStr"/>
+      <c r="R1214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
@@ -68499,7 +68509,279 @@
       <c r="Q1215" t="n">
         <v>0</v>
       </c>
-      <c r="R1215" t="inlineStr"/>
+      <c r="R1215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>928.0499877929688</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>932.7999877929688</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>918.9500122070312</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>927</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>927</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1435727</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>927.0999755859375</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>933.7000122070312</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>922</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>930.0999755859375</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>930.0999755859375</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1256105</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1217" t="inlineStr"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>927</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>934</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>920.0999755859375</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>923.25</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>923.25</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1272594</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>925.5999755859375</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>932.9000244140625</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>920</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>931.3499755859375</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>931.3499755859375</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>943329</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>936.0499877929688</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>957.0999755859375</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>935</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>936.9000244140625</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>936.9000244140625</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2599166</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1220" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1220"/>
+  <dimension ref="A1:R1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68565,7 +68565,9 @@
       <c r="Q1216" t="n">
         <v>0</v>
       </c>
-      <c r="R1216" t="inlineStr"/>
+      <c r="R1216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
@@ -68619,7 +68621,9 @@
       <c r="Q1217" t="n">
         <v>0</v>
       </c>
-      <c r="R1217" t="inlineStr"/>
+      <c r="R1217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
@@ -68673,7 +68677,9 @@
       <c r="Q1218" t="n">
         <v>0</v>
       </c>
-      <c r="R1218" t="inlineStr"/>
+      <c r="R1218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
@@ -68727,7 +68733,9 @@
       <c r="Q1219" t="n">
         <v>0</v>
       </c>
-      <c r="R1219" t="inlineStr"/>
+      <c r="R1219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
@@ -68781,7 +68789,279 @@
       <c r="Q1220" t="n">
         <v>0</v>
       </c>
-      <c r="R1220" t="inlineStr"/>
+      <c r="R1220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>937.5</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>941.9500122070312</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>927.7000122070312</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>935.75</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>935.75</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1136823</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>939.5499877929688</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>939.5499877929688</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>928.5</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>933.0999755859375</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>933.0999755859375</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>828569</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1222" t="inlineStr"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>930</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>932.9000244140625</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>901.25</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>905.5499877929688</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>905.5499877929688</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1847560</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>908</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>914.25</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>866.0499877929688</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>883.6500244140625</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>883.6500244140625</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>3593230</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1224" t="inlineStr"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>888.0999755859375</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>897</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>881.7000122070312</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>894.25</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>894.25</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1954684</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1225" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1225"/>
+  <dimension ref="A1:R1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68781,7 +68781,7 @@
         <v>37</v>
       </c>
       <c r="O1220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1220" t="n">
         <v>0</v>
@@ -68845,7 +68845,9 @@
       <c r="Q1221" t="n">
         <v>0</v>
       </c>
-      <c r="R1221" t="inlineStr"/>
+      <c r="R1221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
@@ -68899,7 +68901,9 @@
       <c r="Q1222" t="n">
         <v>0</v>
       </c>
-      <c r="R1222" t="inlineStr"/>
+      <c r="R1222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
@@ -68953,7 +68957,9 @@
       <c r="Q1223" t="n">
         <v>0</v>
       </c>
-      <c r="R1223" t="inlineStr"/>
+      <c r="R1223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
@@ -69007,7 +69013,9 @@
       <c r="Q1224" t="n">
         <v>0</v>
       </c>
-      <c r="R1224" t="inlineStr"/>
+      <c r="R1224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
@@ -69061,7 +69069,279 @@
       <c r="Q1225" t="n">
         <v>0</v>
       </c>
-      <c r="R1225" t="inlineStr"/>
+      <c r="R1225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>898.25</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>912.6500244140625</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>895.0499877929688</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>910.2000122070312</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>910.2000122070312</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1325815</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1226" t="inlineStr"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>912</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>919.5</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>910</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>911.7000122070312</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>911.7000122070312</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1174611</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>914</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>914</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>897</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>901.25</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>901.25</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1074569</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>900</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>909</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>893.9000244140625</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>906.75</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>906.75</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1365404</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>902.0499877929688</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>928</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>902.0499877929688</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>924.9000244140625</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>924.9000244140625</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2302278</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1230" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1230"/>
+  <dimension ref="A1:R1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69005,7 +69005,7 @@
         <v>38</v>
       </c>
       <c r="O1224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1224" t="n">
         <v>0</v>
@@ -69125,7 +69125,9 @@
       <c r="Q1226" t="n">
         <v>0</v>
       </c>
-      <c r="R1226" t="inlineStr"/>
+      <c r="R1226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1227">
       <c r="A1227" s="2" t="n">
@@ -69179,7 +69181,9 @@
       <c r="Q1227" t="n">
         <v>0</v>
       </c>
-      <c r="R1227" t="inlineStr"/>
+      <c r="R1227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
@@ -69233,7 +69237,9 @@
       <c r="Q1228" t="n">
         <v>0</v>
       </c>
-      <c r="R1228" t="inlineStr"/>
+      <c r="R1228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
@@ -69287,7 +69293,9 @@
       <c r="Q1229" t="n">
         <v>0</v>
       </c>
-      <c r="R1229" t="inlineStr"/>
+      <c r="R1229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
@@ -69341,7 +69349,225 @@
       <c r="Q1230" t="n">
         <v>0</v>
       </c>
-      <c r="R1230" t="inlineStr"/>
+      <c r="R1230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>920</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>932.7000122070312</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>920</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>928.5499877929688</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>928.5499877929688</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1988164</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1231" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1231" t="inlineStr"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>925</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>934</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>920.25</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>931.1500244140625</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>931.1500244140625</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>879838</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>912</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>922.7999877929688</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>880.2999877929688</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>886.4000244140625</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>886.4000244140625</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>4255223</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>886.4000244140625</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>893.7000122070312</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>868.0499877929688</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>872.75</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>872.75</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2313545</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1234" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1234"/>
+  <dimension ref="A1:R1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69405,7 +69405,9 @@
       <c r="Q1231" t="n">
         <v>2</v>
       </c>
-      <c r="R1231" t="inlineStr"/>
+      <c r="R1231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
@@ -69459,7 +69461,9 @@
       <c r="Q1232" t="n">
         <v>0</v>
       </c>
-      <c r="R1232" t="inlineStr"/>
+      <c r="R1232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
@@ -69513,7 +69517,9 @@
       <c r="Q1233" t="n">
         <v>0</v>
       </c>
-      <c r="R1233" t="inlineStr"/>
+      <c r="R1233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
@@ -69567,7 +69573,279 @@
       <c r="Q1234" t="n">
         <v>0</v>
       </c>
-      <c r="R1234" t="inlineStr"/>
+      <c r="R1234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>877.1500244140625</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>880.75</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>843.2999877929688</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>857.7000122070312</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>857.7000122070312</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>3166651</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1235" t="inlineStr"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>854</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>877.1500244140625</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>851.9000244140625</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>875.0999755859375</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>875.0999755859375</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1054400</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1236" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>877</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>887.5999755859375</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>872.9500122070312</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>879.5499877929688</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>879.5499877929688</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1230532</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1237" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>880.5499877929688</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>892</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>880.4000244140625</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>882.6500244140625</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>882.6500244140625</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>914176</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1238" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>880</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>894.6500244140625</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>878.0499877929688</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>889.2000122070312</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>889.2000122070312</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>690455</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1239" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1239" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1239"/>
+  <dimension ref="A1:R1244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69629,7 +69629,9 @@
       <c r="Q1235" t="n">
         <v>0</v>
       </c>
-      <c r="R1235" t="inlineStr"/>
+      <c r="R1235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
@@ -69683,7 +69685,9 @@
       <c r="Q1236" t="n">
         <v>0</v>
       </c>
-      <c r="R1236" t="inlineStr"/>
+      <c r="R1236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
@@ -69737,7 +69741,9 @@
       <c r="Q1237" t="n">
         <v>0</v>
       </c>
-      <c r="R1237" t="inlineStr"/>
+      <c r="R1237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
@@ -69791,7 +69797,9 @@
       <c r="Q1238" t="n">
         <v>0</v>
       </c>
-      <c r="R1238" t="inlineStr"/>
+      <c r="R1238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
@@ -69845,7 +69853,279 @@
       <c r="Q1239" t="n">
         <v>0</v>
       </c>
-      <c r="R1239" t="inlineStr"/>
+      <c r="R1239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>889.2000122070312</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>892.7999877929688</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>881.0999755859375</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>885</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>885</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>802776</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1240" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>885</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>899</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>883.5999755859375</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>895.2999877929688</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>895.2999877929688</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1234903</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1241" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>893.8499755859375</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>900.4000244140625</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>887.6500244140625</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>892.5999755859375</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>892.5999755859375</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>716022</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1242" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>888</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>893</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>863</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>871.75</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>871.75</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>1864160</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1243" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>869.3499755859375</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>883.8499755859375</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>862.7000122070312</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>881</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>881</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>891126</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1244" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1244" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1244"/>
+  <dimension ref="A1:R1249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69621,7 +69621,7 @@
         <v>41</v>
       </c>
       <c r="O1235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1235" t="n">
         <v>0</v>
@@ -69909,7 +69909,9 @@
       <c r="Q1240" t="n">
         <v>0</v>
       </c>
-      <c r="R1240" t="inlineStr"/>
+      <c r="R1240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1241">
       <c r="A1241" s="2" t="n">
@@ -69963,7 +69965,9 @@
       <c r="Q1241" t="n">
         <v>0</v>
       </c>
-      <c r="R1241" t="inlineStr"/>
+      <c r="R1241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1242">
       <c r="A1242" s="2" t="n">
@@ -70017,7 +70021,9 @@
       <c r="Q1242" t="n">
         <v>0</v>
       </c>
-      <c r="R1242" t="inlineStr"/>
+      <c r="R1242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" s="2" t="n">
@@ -70071,7 +70077,9 @@
       <c r="Q1243" t="n">
         <v>0</v>
       </c>
-      <c r="R1243" t="inlineStr"/>
+      <c r="R1243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1244">
       <c r="A1244" s="2" t="n">
@@ -70125,7 +70133,279 @@
       <c r="Q1244" t="n">
         <v>0</v>
       </c>
-      <c r="R1244" t="inlineStr"/>
+      <c r="R1244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>879.6500244140625</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>884.7000122070312</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>851.2000122070312</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>858.7999877929688</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>858.7999877929688</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>964444</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1245" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1245" t="inlineStr"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>858.7999877929688</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>858.7999877929688</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>829</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>831.4000244140625</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>831.4000244140625</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>1690141</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1246" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1246" t="inlineStr"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>827</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>839.8499755859375</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>813.7000122070312</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>828.6500244140625</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>828.6500244140625</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>1551853</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1247" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>828.6500244140625</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>843</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>827.1500244140625</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>830.1500244140625</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>830.1500244140625</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>739626</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>830.1500244140625</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>832.8499755859375</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>798.0999755859375</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>812.0999755859375</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>812.0999755859375</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>1429274</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1249" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1249"/>
+  <dimension ref="A1:R1253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70189,7 +70189,9 @@
       <c r="Q1245" t="n">
         <v>0</v>
       </c>
-      <c r="R1245" t="inlineStr"/>
+      <c r="R1245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1246">
       <c r="A1246" s="2" t="n">
@@ -70243,7 +70245,9 @@
       <c r="Q1246" t="n">
         <v>1</v>
       </c>
-      <c r="R1246" t="inlineStr"/>
+      <c r="R1246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1247">
       <c r="A1247" s="2" t="n">
@@ -70297,7 +70301,9 @@
       <c r="Q1247" t="n">
         <v>0</v>
       </c>
-      <c r="R1247" t="inlineStr"/>
+      <c r="R1247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1248">
       <c r="A1248" s="2" t="n">
@@ -70351,7 +70357,9 @@
       <c r="Q1248" t="n">
         <v>0</v>
       </c>
-      <c r="R1248" t="inlineStr"/>
+      <c r="R1248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1249">
       <c r="A1249" s="2" t="n">
@@ -70405,7 +70413,225 @@
       <c r="Q1249" t="n">
         <v>0</v>
       </c>
-      <c r="R1249" t="inlineStr"/>
+      <c r="R1249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>812.0999755859375</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>830.2000122070312</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>809.0499877929688</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>821.0499877929688</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>821.0499877929688</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>903462</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>821.0499877929688</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>826.4500122070312</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>824.8499755859375</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>824.8499755859375</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>849115</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>824.0499877929688</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>856.9500122070312</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>819</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>839.4000244140625</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>839.4000244140625</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>1597691</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>839.4000244140625</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>845.0999755859375</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>816.1500244140625</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>821.2999877929688</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>821.2999877929688</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>1241687</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1253" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1253"/>
+  <dimension ref="A1:R1259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70469,7 +70469,9 @@
       <c r="Q1250" t="n">
         <v>0</v>
       </c>
-      <c r="R1250" t="inlineStr"/>
+      <c r="R1250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" s="2" t="n">
@@ -70523,7 +70525,9 @@
       <c r="Q1251" t="n">
         <v>0</v>
       </c>
-      <c r="R1251" t="inlineStr"/>
+      <c r="R1251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1252">
       <c r="A1252" s="2" t="n">
@@ -70577,7 +70581,9 @@
       <c r="Q1252" t="n">
         <v>0</v>
       </c>
-      <c r="R1252" t="inlineStr"/>
+      <c r="R1252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1253">
       <c r="A1253" s="2" t="n">
@@ -70631,7 +70637,333 @@
       <c r="Q1253" t="n">
         <v>0</v>
       </c>
-      <c r="R1253" t="inlineStr"/>
+      <c r="R1253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>825.4500122070312</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>833.8499755859375</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>820.1500244140625</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>831.75</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>831.75</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>353630</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1254" t="inlineStr"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>833</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>833.3499755859375</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>802.4500122070312</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>816.2000122070312</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>816.2000122070312</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>1622214</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1255" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1255" t="inlineStr"/>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>795</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>831.7000122070312</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>792.0999755859375</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>829.0999755859375</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>829.0999755859375</v>
+      </c>
+      <c r="G1256" t="n">
+        <v>4430786</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1256" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>835</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>863.2999877929688</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>833.2999877929688</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>857.3499755859375</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>857.3499755859375</v>
+      </c>
+      <c r="G1257" t="n">
+        <v>3702637</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1257" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>851.1500244140625</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>857.0999755859375</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>841.1500244140625</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>844.0499877929688</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>844.0499877929688</v>
+      </c>
+      <c r="G1258" t="n">
+        <v>872399</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1258" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>841</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>844.9500122070312</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>830</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>832.5</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>832.5</v>
+      </c>
+      <c r="G1259" t="n">
+        <v>899032</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1259" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1259" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1259"/>
+  <dimension ref="A1:R1263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70693,7 +70693,9 @@
       <c r="Q1254" t="n">
         <v>0</v>
       </c>
-      <c r="R1254" t="inlineStr"/>
+      <c r="R1254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1255">
       <c r="A1255" s="2" t="n">
@@ -70747,7 +70749,9 @@
       <c r="Q1255" t="n">
         <v>0</v>
       </c>
-      <c r="R1255" t="inlineStr"/>
+      <c r="R1255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1256">
       <c r="A1256" s="2" t="n">
@@ -70801,7 +70805,9 @@
       <c r="Q1256" t="n">
         <v>0</v>
       </c>
-      <c r="R1256" t="inlineStr"/>
+      <c r="R1256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1257">
       <c r="A1257" s="2" t="n">
@@ -70855,7 +70861,9 @@
       <c r="Q1257" t="n">
         <v>0</v>
       </c>
-      <c r="R1257" t="inlineStr"/>
+      <c r="R1257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1258">
       <c r="A1258" s="2" t="n">
@@ -70909,7 +70917,9 @@
       <c r="Q1258" t="n">
         <v>0</v>
       </c>
-      <c r="R1258" t="inlineStr"/>
+      <c r="R1258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1259">
       <c r="A1259" s="2" t="n">
@@ -70963,7 +70973,225 @@
       <c r="Q1259" t="n">
         <v>0</v>
       </c>
-      <c r="R1259" t="inlineStr"/>
+      <c r="R1259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>828.0999755859375</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>842.7999877929688</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>822.1500244140625</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>836.2000122070312</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>832.0263061523438</v>
+      </c>
+      <c r="G1260" t="n">
+        <v>730959</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1260" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1260" t="inlineStr"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>836</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>843.7999877929688</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>810</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>811.6500244140625</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>807.5988159179688</v>
+      </c>
+      <c r="G1261" t="n">
+        <v>1007697</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1261" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>809.7000122070312</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>817.2999877929688</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>796.5</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>801.4000244140625</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>797.4000244140625</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>1223260</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1262" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>800</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>808.25</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>791</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>799.5999755859375</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>799.5999755859375</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>845850</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1263" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1263" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1263"/>
+  <dimension ref="A1:R1267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70853,7 +70853,7 @@
         <v>45</v>
       </c>
       <c r="O1257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1257" t="n">
         <v>0</v>
@@ -71029,7 +71029,9 @@
       <c r="Q1260" t="n">
         <v>0</v>
       </c>
-      <c r="R1260" t="inlineStr"/>
+      <c r="R1260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1261">
       <c r="A1261" s="2" t="n">
@@ -71083,7 +71085,9 @@
       <c r="Q1261" t="n">
         <v>0</v>
       </c>
-      <c r="R1261" t="inlineStr"/>
+      <c r="R1261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1262">
       <c r="A1262" s="2" t="n">
@@ -71137,7 +71141,9 @@
       <c r="Q1262" t="n">
         <v>0</v>
       </c>
-      <c r="R1262" t="inlineStr"/>
+      <c r="R1262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" s="2" t="n">
@@ -71191,7 +71197,225 @@
       <c r="Q1263" t="n">
         <v>0</v>
       </c>
-      <c r="R1263" t="inlineStr"/>
+      <c r="R1263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>801.9000244140625</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>810.9000244140625</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>787</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>797.0999755859375</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>797.0999755859375</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>1009781</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1264" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>796</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>815.6500244140625</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>796</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>800.0999755859375</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>800.0999755859375</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>774201</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1265" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>801.2999877929688</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>801.2999877929688</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>783</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>793.8499755859375</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>793.8499755859375</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>1176124</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>793</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>810.4500122070312</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>791.5499877929688</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>808.5999755859375</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>808.5999755859375</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>704587</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1267" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1267"/>
+  <dimension ref="A1:R1272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71253,7 +71253,9 @@
       <c r="Q1264" t="n">
         <v>0</v>
       </c>
-      <c r="R1264" t="inlineStr"/>
+      <c r="R1264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1265">
       <c r="A1265" s="2" t="n">
@@ -71307,7 +71309,9 @@
       <c r="Q1265" t="n">
         <v>0</v>
       </c>
-      <c r="R1265" t="inlineStr"/>
+      <c r="R1265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" s="2" t="n">
@@ -71361,7 +71365,9 @@
       <c r="Q1266" t="n">
         <v>0</v>
       </c>
-      <c r="R1266" t="inlineStr"/>
+      <c r="R1266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1267">
       <c r="A1267" s="2" t="n">
@@ -71415,7 +71421,279 @@
       <c r="Q1267" t="n">
         <v>0</v>
       </c>
-      <c r="R1267" t="inlineStr"/>
+      <c r="R1267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>820</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>826.5999755859375</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>810.4000244140625</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>812.0999755859375</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>812.0999755859375</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>1214000</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1268" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>814.5</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>822</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>812</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>814.9500122070312</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>814.9500122070312</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>746418</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>813</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>831</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>812</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>822.5999755859375</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>822.5999755859375</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>1161326</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1270" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>822.5999755859375</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>827.2999877929688</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>811.2000122070312</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>814.3499755859375</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>814.3499755859375</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>1145818</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1271" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>814.3499755859375</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>822.9000244140625</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>810</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>815.9500122070312</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>815.9500122070312</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>1333703</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1272" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1272" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1272"/>
+  <dimension ref="A1:R1276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71357,7 +71357,7 @@
         <v>47</v>
       </c>
       <c r="O1266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1266" t="n">
         <v>0</v>
@@ -71477,7 +71477,9 @@
       <c r="Q1268" t="n">
         <v>2</v>
       </c>
-      <c r="R1268" t="inlineStr"/>
+      <c r="R1268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1269">
       <c r="A1269" s="2" t="n">
@@ -71531,7 +71533,9 @@
       <c r="Q1269" t="n">
         <v>0</v>
       </c>
-      <c r="R1269" t="inlineStr"/>
+      <c r="R1269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1270">
       <c r="A1270" s="2" t="n">
@@ -71585,7 +71589,9 @@
       <c r="Q1270" t="n">
         <v>0</v>
       </c>
-      <c r="R1270" t="inlineStr"/>
+      <c r="R1270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" s="2" t="n">
@@ -71639,7 +71645,9 @@
       <c r="Q1271" t="n">
         <v>0</v>
       </c>
-      <c r="R1271" t="inlineStr"/>
+      <c r="R1271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1272">
       <c r="A1272" s="2" t="n">
@@ -71693,7 +71701,225 @@
       <c r="Q1272" t="n">
         <v>0</v>
       </c>
-      <c r="R1272" t="inlineStr"/>
+      <c r="R1272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>815</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>819.6500244140625</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>809.0999755859375</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>985235</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1273" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>834.5999755859375</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>831.8499755859375</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>831.8499755859375</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>1104201</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1274" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>833</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>839</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>825.2999877929688</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>832.6500244140625</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>832.6500244140625</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>1153943</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1275" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>833</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>841.5</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>831.4000244140625</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>836.8499755859375</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>836.8499755859375</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>1344912</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1276" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1276" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1276"/>
+  <dimension ref="A1:R1287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71757,7 +71757,9 @@
       <c r="Q1273" t="n">
         <v>0</v>
       </c>
-      <c r="R1273" t="inlineStr"/>
+      <c r="R1273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1274">
       <c r="A1274" s="2" t="n">
@@ -71811,7 +71813,9 @@
       <c r="Q1274" t="n">
         <v>0</v>
       </c>
-      <c r="R1274" t="inlineStr"/>
+      <c r="R1274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1275">
       <c r="A1275" s="2" t="n">
@@ -71865,7 +71869,9 @@
       <c r="Q1275" t="n">
         <v>0</v>
       </c>
-      <c r="R1275" t="inlineStr"/>
+      <c r="R1275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1276">
       <c r="A1276" s="2" t="n">
@@ -71919,7 +71925,581 @@
       <c r="Q1276" t="n">
         <v>0</v>
       </c>
-      <c r="R1276" t="inlineStr"/>
+      <c r="R1276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>836.8499755859375</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>843.9000244140625</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>829.2000122070312</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>830.5999755859375</v>
+      </c>
+      <c r="F1277" t="inlineStr"/>
+      <c r="G1277" t="n">
+        <v>1312492</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1277" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>830.5999755859375</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>840.5999755859375</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>829.8499755859375</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>833.7000122070312</v>
+      </c>
+      <c r="F1278" t="inlineStr"/>
+      <c r="G1278" t="n">
+        <v>970147</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1278" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>838.7000122070312</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>847.75</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>833.0499877929688</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>835</v>
+      </c>
+      <c r="F1279" t="inlineStr"/>
+      <c r="G1279" t="n">
+        <v>1006094</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1279" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>837.2000122070312</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>857</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>833.3499755859375</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>855.4500122070312</v>
+      </c>
+      <c r="F1280" t="inlineStr"/>
+      <c r="G1280" t="n">
+        <v>2301272</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>855</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>859.7000122070312</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>836.0499877929688</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>839.9000244140625</v>
+      </c>
+      <c r="F1281" t="inlineStr"/>
+      <c r="G1281" t="n">
+        <v>1281101</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>835.0499877929688</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>839.25</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>820.2000122070312</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>835.4500122070312</v>
+      </c>
+      <c r="F1282" t="inlineStr"/>
+      <c r="G1282" t="n">
+        <v>1034298</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>835</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>843.9000244140625</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>835</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>842.5</v>
+      </c>
+      <c r="F1283" t="inlineStr"/>
+      <c r="G1283" t="n">
+        <v>729632</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>839.7999877929688</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>842.5</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>825</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>826.7999877929688</v>
+      </c>
+      <c r="F1284" t="inlineStr"/>
+      <c r="G1284" t="n">
+        <v>762025</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>824.9500122070312</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>826.7999877929688</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>810</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>813</v>
+      </c>
+      <c r="F1285" t="inlineStr"/>
+      <c r="G1285" t="n">
+        <v>724323</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>805</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>808.25</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>798.2999877929688</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>805.5499877929688</v>
+      </c>
+      <c r="F1286" t="inlineStr"/>
+      <c r="G1286" t="n">
+        <v>808692</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1286" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>803</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>812.7000122070312</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>781</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>784.25</v>
+      </c>
+      <c r="F1287" t="inlineStr"/>
+      <c r="G1287" t="n">
+        <v>1389451</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1287" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1287" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1287"/>
+  <dimension ref="A1:R1291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71979,7 +71979,9 @@
       <c r="Q1277" t="n">
         <v>1</v>
       </c>
-      <c r="R1277" t="inlineStr"/>
+      <c r="R1277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1278">
       <c r="A1278" s="2" t="n">
@@ -72031,7 +72033,9 @@
       <c r="Q1278" t="n">
         <v>0</v>
       </c>
-      <c r="R1278" t="inlineStr"/>
+      <c r="R1278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" s="2" t="n">
@@ -72083,7 +72087,9 @@
       <c r="Q1279" t="n">
         <v>0</v>
       </c>
-      <c r="R1279" t="inlineStr"/>
+      <c r="R1279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" s="2" t="n">
@@ -72135,7 +72141,9 @@
       <c r="Q1280" t="n">
         <v>0</v>
       </c>
-      <c r="R1280" t="inlineStr"/>
+      <c r="R1280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1281">
       <c r="A1281" s="2" t="n">
@@ -72179,7 +72187,7 @@
         <v>50</v>
       </c>
       <c r="O1281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1281" t="n">
         <v>0</v>
@@ -72187,7 +72195,9 @@
       <c r="Q1281" t="n">
         <v>0</v>
       </c>
-      <c r="R1281" t="inlineStr"/>
+      <c r="R1281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1282">
       <c r="A1282" s="2" t="n">
@@ -72239,7 +72249,9 @@
       <c r="Q1282" t="n">
         <v>0</v>
       </c>
-      <c r="R1282" t="inlineStr"/>
+      <c r="R1282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1283">
       <c r="A1283" s="2" t="n">
@@ -72291,7 +72303,9 @@
       <c r="Q1283" t="n">
         <v>0</v>
       </c>
-      <c r="R1283" t="inlineStr"/>
+      <c r="R1283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1284">
       <c r="A1284" s="2" t="n">
@@ -72343,7 +72357,9 @@
       <c r="Q1284" t="n">
         <v>0</v>
       </c>
-      <c r="R1284" t="inlineStr"/>
+      <c r="R1284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" s="2" t="n">
@@ -72395,7 +72411,9 @@
       <c r="Q1285" t="n">
         <v>0</v>
       </c>
-      <c r="R1285" t="inlineStr"/>
+      <c r="R1285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" s="2" t="n">
@@ -72447,7 +72465,9 @@
       <c r="Q1286" t="n">
         <v>0</v>
       </c>
-      <c r="R1286" t="inlineStr"/>
+      <c r="R1286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1287">
       <c r="A1287" s="2" t="n">
@@ -72499,7 +72519,217 @@
       <c r="Q1287" t="n">
         <v>0</v>
       </c>
-      <c r="R1287" t="inlineStr"/>
+      <c r="R1287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>786.7999877929688</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>792.5499877929688</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>777.2000122070312</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>788.2000122070312</v>
+      </c>
+      <c r="F1288" t="inlineStr"/>
+      <c r="G1288" t="n">
+        <v>1084917</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1288" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>787.3499755859375</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>792.9500122070312</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>779.4000244140625</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>788.7999877929688</v>
+      </c>
+      <c r="F1289" t="inlineStr"/>
+      <c r="G1289" t="n">
+        <v>834321</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1289" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>788.0499877929688</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>792.2000122070312</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>782.4000244140625</v>
+      </c>
+      <c r="F1290" t="inlineStr"/>
+      <c r="G1290" t="n">
+        <v>827630</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1290" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>777.25</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>786</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>777.25</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>779.25</v>
+      </c>
+      <c r="F1291" t="inlineStr"/>
+      <c r="G1291" t="n">
+        <v>635929</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1291" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1291" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1291"/>
+  <dimension ref="A1:R1296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72573,7 +72573,9 @@
       <c r="Q1288" t="n">
         <v>0</v>
       </c>
-      <c r="R1288" t="inlineStr"/>
+      <c r="R1288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1289">
       <c r="A1289" s="2" t="n">
@@ -72625,7 +72627,9 @@
       <c r="Q1289" t="n">
         <v>0</v>
       </c>
-      <c r="R1289" t="inlineStr"/>
+      <c r="R1289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1290">
       <c r="A1290" s="2" t="n">
@@ -72677,7 +72681,9 @@
       <c r="Q1290" t="n">
         <v>0</v>
       </c>
-      <c r="R1290" t="inlineStr"/>
+      <c r="R1290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1291">
       <c r="A1291" s="2" t="n">
@@ -72729,7 +72735,269 @@
       <c r="Q1291" t="n">
         <v>0</v>
       </c>
-      <c r="R1291" t="inlineStr"/>
+      <c r="R1291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>779.25</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>781.7000122070312</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>765.0999755859375</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>768.9500122070312</v>
+      </c>
+      <c r="F1292" t="inlineStr"/>
+      <c r="G1292" t="n">
+        <v>2554813</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1292" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1292" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1292" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>767.9000244140625</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>789.9000244140625</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>767</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>786.9000244140625</v>
+      </c>
+      <c r="F1293" t="inlineStr"/>
+      <c r="G1293" t="n">
+        <v>1077161</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1293" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>785</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>794.6500244140625</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>788.9000244140625</v>
+      </c>
+      <c r="F1294" t="inlineStr"/>
+      <c r="G1294" t="n">
+        <v>581539</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>785</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>796</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>784</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>794.5</v>
+      </c>
+      <c r="F1295" t="inlineStr"/>
+      <c r="G1295" t="n">
+        <v>809623</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>791</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>791</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>796.2999877929688</v>
+      </c>
+      <c r="F1296" t="inlineStr"/>
+      <c r="G1296" t="n">
+        <v>859724</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1296" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1296"/>
+  <dimension ref="A1:R1301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72789,7 +72789,9 @@
       <c r="Q1292" t="n">
         <v>2</v>
       </c>
-      <c r="R1292" t="inlineStr"/>
+      <c r="R1292" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" s="2" t="n">
@@ -72841,7 +72843,9 @@
       <c r="Q1293" t="n">
         <v>0</v>
       </c>
-      <c r="R1293" t="inlineStr"/>
+      <c r="R1293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" s="2" t="n">
@@ -72893,7 +72897,9 @@
       <c r="Q1294" t="n">
         <v>0</v>
       </c>
-      <c r="R1294" t="inlineStr"/>
+      <c r="R1294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1295">
       <c r="A1295" s="2" t="n">
@@ -72945,7 +72951,9 @@
       <c r="Q1295" t="n">
         <v>0</v>
       </c>
-      <c r="R1295" t="inlineStr"/>
+      <c r="R1295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1296">
       <c r="A1296" s="2" t="n">
@@ -72997,7 +73005,269 @@
       <c r="Q1296" t="n">
         <v>0</v>
       </c>
-      <c r="R1296" t="inlineStr"/>
+      <c r="R1296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>796</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>802.9500122070312</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>765</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>770.3499755859375</v>
+      </c>
+      <c r="F1297" t="inlineStr"/>
+      <c r="G1297" t="n">
+        <v>1421671</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>770</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>783.4000244140625</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>770</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>775.4000244140625</v>
+      </c>
+      <c r="F1298" t="inlineStr"/>
+      <c r="G1298" t="n">
+        <v>676868</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>776</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>761.7999877929688</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>769.9000244140625</v>
+      </c>
+      <c r="F1299" t="inlineStr"/>
+      <c r="G1299" t="n">
+        <v>783013</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>770.1500244140625</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>771.0999755859375</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>762</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>763.7999877929688</v>
+      </c>
+      <c r="F1300" t="inlineStr"/>
+      <c r="G1300" t="n">
+        <v>607785</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1300" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>772.7999877929688</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>800.75</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>755.2999877929688</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>779.1500244140625</v>
+      </c>
+      <c r="F1301" t="inlineStr"/>
+      <c r="G1301" t="n">
+        <v>6279952</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1301" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1301" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1301"/>
+  <dimension ref="A1:R1306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73059,7 +73059,9 @@
       <c r="Q1297" t="n">
         <v>0</v>
       </c>
-      <c r="R1297" t="inlineStr"/>
+      <c r="R1297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1298">
       <c r="A1298" s="2" t="n">
@@ -73111,7 +73113,9 @@
       <c r="Q1298" t="n">
         <v>0</v>
       </c>
-      <c r="R1298" t="inlineStr"/>
+      <c r="R1298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1299">
       <c r="A1299" s="2" t="n">
@@ -73163,7 +73167,9 @@
       <c r="Q1299" t="n">
         <v>0</v>
       </c>
-      <c r="R1299" t="inlineStr"/>
+      <c r="R1299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" s="2" t="n">
@@ -73215,7 +73221,9 @@
       <c r="Q1300" t="n">
         <v>0</v>
       </c>
-      <c r="R1300" t="inlineStr"/>
+      <c r="R1300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1301">
       <c r="A1301" s="2" t="n">
@@ -73267,7 +73275,269 @@
       <c r="Q1301" t="n">
         <v>0</v>
       </c>
-      <c r="R1301" t="inlineStr"/>
+      <c r="R1301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>779.1500244140625</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>779.1500244140625</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>743.75</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>746.8499755859375</v>
+      </c>
+      <c r="F1302" t="inlineStr"/>
+      <c r="G1302" t="n">
+        <v>1644645</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1302" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>748</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>764.7000122070312</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>748</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>757.75</v>
+      </c>
+      <c r="F1303" t="inlineStr"/>
+      <c r="G1303" t="n">
+        <v>1291155</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1303" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>760</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>770.4000244140625</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>755.0499877929688</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>759.5499877929688</v>
+      </c>
+      <c r="F1304" t="inlineStr"/>
+      <c r="G1304" t="n">
+        <v>865946</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1304" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>768</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>773.2000122070312</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>762</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>763.2000122070312</v>
+      </c>
+      <c r="F1305" t="inlineStr"/>
+      <c r="G1305" t="n">
+        <v>1389758</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1305" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>764</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>781.9000244140625</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>759.0999755859375</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>779.2000122070312</v>
+      </c>
+      <c r="F1306" t="inlineStr"/>
+      <c r="G1306" t="n">
+        <v>1489423</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1306" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1306" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1306"/>
+  <dimension ref="A1:R1311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73329,7 +73329,9 @@
       <c r="Q1302" t="n">
         <v>0</v>
       </c>
-      <c r="R1302" t="inlineStr"/>
+      <c r="R1302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1303">
       <c r="A1303" s="2" t="n">
@@ -73381,7 +73383,9 @@
       <c r="Q1303" t="n">
         <v>0</v>
       </c>
-      <c r="R1303" t="inlineStr"/>
+      <c r="R1303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1304">
       <c r="A1304" s="2" t="n">
@@ -73433,7 +73437,9 @@
       <c r="Q1304" t="n">
         <v>0</v>
       </c>
-      <c r="R1304" t="inlineStr"/>
+      <c r="R1304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1305">
       <c r="A1305" s="2" t="n">
@@ -73485,7 +73491,9 @@
       <c r="Q1305" t="n">
         <v>0</v>
       </c>
-      <c r="R1305" t="inlineStr"/>
+      <c r="R1305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1306">
       <c r="A1306" s="2" t="n">
@@ -73537,7 +73545,269 @@
       <c r="Q1306" t="n">
         <v>0</v>
       </c>
-      <c r="R1306" t="inlineStr"/>
+      <c r="R1306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>781</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>800.75</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>775.2000122070312</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>791.0999755859375</v>
+      </c>
+      <c r="F1307" t="inlineStr"/>
+      <c r="G1307" t="n">
+        <v>1405314</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1307" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>791.9500122070312</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>797.5</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>781.25</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>782.7000122070312</v>
+      </c>
+      <c r="F1308" t="inlineStr"/>
+      <c r="G1308" t="n">
+        <v>873078</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1308" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>783.0999755859375</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>784.2999877929688</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>757.0999755859375</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>770.6500244140625</v>
+      </c>
+      <c r="F1309" t="inlineStr"/>
+      <c r="G1309" t="n">
+        <v>1097030</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1309" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>770.5999755859375</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>797.4000244140625</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>766.7999877929688</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>795.2000122070312</v>
+      </c>
+      <c r="F1310" t="inlineStr"/>
+      <c r="G1310" t="n">
+        <v>1235738</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1310" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>799.2000122070312</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>802.5</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>784.2999877929688</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>787.5</v>
+      </c>
+      <c r="F1311" t="inlineStr"/>
+      <c r="G1311" t="n">
+        <v>1303762</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1311" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1311" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1311"/>
+  <dimension ref="A1:R1312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73321,7 +73321,7 @@
         <v>3</v>
       </c>
       <c r="O1302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1302" t="n">
         <v>0</v>
@@ -73599,7 +73599,9 @@
       <c r="Q1307" t="n">
         <v>0</v>
       </c>
-      <c r="R1307" t="inlineStr"/>
+      <c r="R1307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1308">
       <c r="A1308" s="2" t="n">
@@ -73651,7 +73653,9 @@
       <c r="Q1308" t="n">
         <v>0</v>
       </c>
-      <c r="R1308" t="inlineStr"/>
+      <c r="R1308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1309">
       <c r="A1309" s="2" t="n">
@@ -73703,7 +73707,9 @@
       <c r="Q1309" t="n">
         <v>0</v>
       </c>
-      <c r="R1309" t="inlineStr"/>
+      <c r="R1309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1310">
       <c r="A1310" s="2" t="n">
@@ -73755,7 +73761,9 @@
       <c r="Q1310" t="n">
         <v>0</v>
       </c>
-      <c r="R1310" t="inlineStr"/>
+      <c r="R1310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1311">
       <c r="A1311" s="2" t="n">
@@ -73807,7 +73815,61 @@
       <c r="Q1311" t="n">
         <v>0</v>
       </c>
-      <c r="R1311" t="inlineStr"/>
+      <c r="R1311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>779.1500244140625</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>782.0499877929688</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>745</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>747.7000122070312</v>
+      </c>
+      <c r="F1312" t="inlineStr"/>
+      <c r="G1312" t="n">
+        <v>2669072</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1312" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1312"/>
+  <dimension ref="A1:R1322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73869,7 +73869,529 @@
       <c r="Q1312" t="n">
         <v>0</v>
       </c>
-      <c r="R1312" t="inlineStr"/>
+      <c r="R1312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>757</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>759.2999877929688</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>736.2999877929688</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="F1313" t="inlineStr"/>
+      <c r="G1313" t="n">
+        <v>1371367</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>749</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>764.5499877929688</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>749</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>762.4000244140625</v>
+      </c>
+      <c r="F1314" t="inlineStr"/>
+      <c r="G1314" t="n">
+        <v>699239</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>764</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>785</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>763.0499877929688</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>779</v>
+      </c>
+      <c r="F1315" t="inlineStr"/>
+      <c r="G1315" t="n">
+        <v>2153478</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>782.8499755859375</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>828.7999877929688</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>775</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>822.2999877929688</v>
+      </c>
+      <c r="F1316" t="inlineStr"/>
+      <c r="G1316" t="n">
+        <v>3111982</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>831.6500244140625</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>831.75</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>787.0999755859375</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>794.7000122070312</v>
+      </c>
+      <c r="F1317" t="inlineStr"/>
+      <c r="G1317" t="n">
+        <v>3990832</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>788</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>788</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>758.7999877929688</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>772.6500244140625</v>
+      </c>
+      <c r="F1318" t="inlineStr"/>
+      <c r="G1318" t="n">
+        <v>1830063</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>774.0999755859375</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>786</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>774.0999755859375</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>781.9000244140625</v>
+      </c>
+      <c r="F1319" t="inlineStr"/>
+      <c r="G1319" t="n">
+        <v>1037714</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>781</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>797.5499877929688</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>781</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>791.9000244140625</v>
+      </c>
+      <c r="F1320" t="inlineStr"/>
+      <c r="G1320" t="n">
+        <v>972279</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>791.9000244140625</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>794.9000244140625</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>782</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>783.7999877929688</v>
+      </c>
+      <c r="F1321" t="inlineStr"/>
+      <c r="G1321" t="n">
+        <v>630878</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>781</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>787.2000122070312</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>774.0999755859375</v>
+      </c>
+      <c r="F1322" t="inlineStr"/>
+      <c r="G1322" t="n">
+        <v>616174</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1322"/>
+  <dimension ref="A1:R1323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73915,7 +73915,7 @@
         <v>5</v>
       </c>
       <c r="O1313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1313" t="n">
         <v>0</v>
@@ -73923,7 +73923,9 @@
       <c r="Q1313" t="n">
         <v>1</v>
       </c>
-      <c r="R1313" t="inlineStr"/>
+      <c r="R1313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1314">
       <c r="A1314" s="2" t="n">
@@ -73975,7 +73977,9 @@
       <c r="Q1314" t="n">
         <v>0</v>
       </c>
-      <c r="R1314" t="inlineStr"/>
+      <c r="R1314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1315">
       <c r="A1315" s="2" t="n">
@@ -74027,7 +74031,9 @@
       <c r="Q1315" t="n">
         <v>0</v>
       </c>
-      <c r="R1315" t="inlineStr"/>
+      <c r="R1315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1316">
       <c r="A1316" s="2" t="n">
@@ -74079,7 +74085,9 @@
       <c r="Q1316" t="n">
         <v>0</v>
       </c>
-      <c r="R1316" t="inlineStr"/>
+      <c r="R1316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1317">
       <c r="A1317" s="2" t="n">
@@ -74131,7 +74139,9 @@
       <c r="Q1317" t="n">
         <v>0</v>
       </c>
-      <c r="R1317" t="inlineStr"/>
+      <c r="R1317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1318">
       <c r="A1318" s="2" t="n">
@@ -74183,7 +74193,9 @@
       <c r="Q1318" t="n">
         <v>0</v>
       </c>
-      <c r="R1318" t="inlineStr"/>
+      <c r="R1318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1319">
       <c r="A1319" s="2" t="n">
@@ -74235,7 +74247,9 @@
       <c r="Q1319" t="n">
         <v>0</v>
       </c>
-      <c r="R1319" t="inlineStr"/>
+      <c r="R1319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1320">
       <c r="A1320" s="2" t="n">
@@ -74287,7 +74301,9 @@
       <c r="Q1320" t="n">
         <v>0</v>
       </c>
-      <c r="R1320" t="inlineStr"/>
+      <c r="R1320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1321">
       <c r="A1321" s="2" t="n">
@@ -74339,7 +74355,9 @@
       <c r="Q1321" t="n">
         <v>0</v>
       </c>
-      <c r="R1321" t="inlineStr"/>
+      <c r="R1321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1322">
       <c r="A1322" s="2" t="n">
@@ -74391,7 +74409,61 @@
       <c r="Q1322" t="n">
         <v>0</v>
       </c>
-      <c r="R1322" t="inlineStr"/>
+      <c r="R1322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>770</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>787.3499755859375</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>767.2000122070312</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>773.7000122070312</v>
+      </c>
+      <c r="F1323" t="inlineStr"/>
+      <c r="G1323" t="n">
+        <v>1491289</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1323" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1323"/>
+  <dimension ref="A1:R1331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="R200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -12678,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="R218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -16262,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="R282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -22254,7 +22254,7 @@
         <v>1</v>
       </c>
       <c r="R389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -33062,7 +33062,7 @@
         <v>0</v>
       </c>
       <c r="R582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -34574,7 +34574,7 @@
         <v>0</v>
       </c>
       <c r="R609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
@@ -38550,7 +38550,7 @@
         <v>1</v>
       </c>
       <c r="R680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -41910,7 +41910,7 @@
         <v>2</v>
       </c>
       <c r="R740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741">
@@ -43870,7 +43870,7 @@
         <v>2</v>
       </c>
       <c r="R775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776">
@@ -47062,7 +47062,7 @@
         <v>0</v>
       </c>
       <c r="R832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833">
@@ -49414,7 +49414,7 @@
         <v>1</v>
       </c>
       <c r="R874" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875">
@@ -51206,7 +51206,7 @@
         <v>1</v>
       </c>
       <c r="R906" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907">
@@ -51710,7 +51710,7 @@
         <v>0</v>
       </c>
       <c r="R915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916">
@@ -52382,7 +52382,7 @@
         <v>2</v>
       </c>
       <c r="R927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -55574,7 +55574,7 @@
         <v>2</v>
       </c>
       <c r="R984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985">
@@ -56078,7 +56078,7 @@
         <v>1</v>
       </c>
       <c r="R993" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994">
@@ -56526,7 +56526,7 @@
         <v>2</v>
       </c>
       <c r="R1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -57310,7 +57310,7 @@
         <v>1</v>
       </c>
       <c r="R1015" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016">
@@ -60502,7 +60502,7 @@
         <v>1</v>
       </c>
       <c r="R1072" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073">
@@ -60614,7 +60614,7 @@
         <v>2</v>
       </c>
       <c r="R1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -61398,7 +61398,7 @@
         <v>0</v>
       </c>
       <c r="R1088" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089">
@@ -62574,7 +62574,7 @@
         <v>0</v>
       </c>
       <c r="R1109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110">
@@ -64646,7 +64646,7 @@
         <v>0</v>
       </c>
       <c r="R1146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147">
@@ -65486,7 +65486,7 @@
         <v>0</v>
       </c>
       <c r="R1161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162">
@@ -66158,7 +66158,7 @@
         <v>2</v>
       </c>
       <c r="R1173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174">
@@ -69406,7 +69406,7 @@
         <v>2</v>
       </c>
       <c r="R1231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1232">
@@ -70246,7 +70246,7 @@
         <v>1</v>
       </c>
       <c r="R1246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247">
@@ -71478,7 +71478,7 @@
         <v>2</v>
       </c>
       <c r="R1268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1269">
@@ -71980,7 +71980,7 @@
         <v>1</v>
       </c>
       <c r="R1277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278">
@@ -73924,7 +73924,7 @@
         <v>1</v>
       </c>
       <c r="R1313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314">
@@ -74131,7 +74131,7 @@
         <v>5</v>
       </c>
       <c r="O1317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1317" t="n">
         <v>0</v>
@@ -74463,7 +74463,425 @@
       <c r="Q1323" t="n">
         <v>0</v>
       </c>
-      <c r="R1323" t="inlineStr"/>
+      <c r="R1323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>774.5961274987087</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>774.7953158291926</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>741.2341183980943</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>747.8567504882812</v>
+      </c>
+      <c r="F1324" t="inlineStr"/>
+      <c r="G1324" t="n">
+        <v>1244409</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>751.8900195000543</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>761.5500756159424</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>719.0757343068468</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>756.02294921875</v>
+      </c>
+      <c r="F1325" t="inlineStr"/>
+      <c r="G1325" t="n">
+        <v>2623575</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>756.0229580442068</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>768.8200024239059</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>741.9312199557122</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>743.275634765625</v>
+      </c>
+      <c r="F1326" t="inlineStr"/>
+      <c r="G1326" t="n">
+        <v>1038398</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>747.906507067698</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>749.6492985289077</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>723.358020172019</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>729.582275390625</v>
+      </c>
+      <c r="F1327" t="inlineStr"/>
+      <c r="G1327" t="n">
+        <v>937949</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>722.0136334422675</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>729.582303768992</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>712.4033586974347</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>722.4617919921875</v>
+      </c>
+      <c r="F1328" t="inlineStr"/>
+      <c r="G1328" t="n">
+        <v>1010707</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>722.0135843107063</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>725.4991671315166</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>706.3782435006091</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>716.2374877929688</v>
+      </c>
+      <c r="F1329" t="inlineStr"/>
+      <c r="G1329" t="n">
+        <v>1091654</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>714.0465467032089</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>728.9847589773346</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>708.5692022026963</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>725.2999877929688</v>
+      </c>
+      <c r="F1330" t="inlineStr"/>
+      <c r="G1330" t="n">
+        <v>785782</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>730.3499755859375</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>743.9000244140625</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>724.5</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="F1331" t="inlineStr"/>
+      <c r="G1331" t="n">
+        <v>1034335</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1331"/>
+  <dimension ref="A1:R1341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="R200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -12678,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="R218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -16262,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="R282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -22254,7 +22254,7 @@
         <v>1</v>
       </c>
       <c r="R389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -33062,7 +33062,7 @@
         <v>0</v>
       </c>
       <c r="R582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -34574,7 +34574,7 @@
         <v>0</v>
       </c>
       <c r="R609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -38550,7 +38550,7 @@
         <v>1</v>
       </c>
       <c r="R680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -41910,7 +41910,7 @@
         <v>2</v>
       </c>
       <c r="R740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741">
@@ -43870,7 +43870,7 @@
         <v>2</v>
       </c>
       <c r="R775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776">
@@ -47062,7 +47062,7 @@
         <v>0</v>
       </c>
       <c r="R832" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833">
@@ -49414,7 +49414,7 @@
         <v>1</v>
       </c>
       <c r="R874" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875">
@@ -51206,7 +51206,7 @@
         <v>1</v>
       </c>
       <c r="R906" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907">
@@ -51710,7 +51710,7 @@
         <v>0</v>
       </c>
       <c r="R915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916">
@@ -52382,7 +52382,7 @@
         <v>2</v>
       </c>
       <c r="R927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928">
@@ -55574,7 +55574,7 @@
         <v>2</v>
       </c>
       <c r="R984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985">
@@ -56078,7 +56078,7 @@
         <v>1</v>
       </c>
       <c r="R993" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994">
@@ -56526,7 +56526,7 @@
         <v>2</v>
       </c>
       <c r="R1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -57310,7 +57310,7 @@
         <v>1</v>
       </c>
       <c r="R1015" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016">
@@ -60502,7 +60502,7 @@
         <v>1</v>
       </c>
       <c r="R1072" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073">
@@ -60614,7 +60614,7 @@
         <v>2</v>
       </c>
       <c r="R1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075">
@@ -61398,7 +61398,7 @@
         <v>0</v>
       </c>
       <c r="R1088" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -62574,7 +62574,7 @@
         <v>0</v>
       </c>
       <c r="R1109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110">
@@ -64646,7 +64646,7 @@
         <v>0</v>
       </c>
       <c r="R1146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147">
@@ -65486,7 +65486,7 @@
         <v>0</v>
       </c>
       <c r="R1161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162">
@@ -66158,7 +66158,7 @@
         <v>2</v>
       </c>
       <c r="R1173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174">
@@ -69406,7 +69406,7 @@
         <v>2</v>
       </c>
       <c r="R1231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232">
@@ -70246,7 +70246,7 @@
         <v>1</v>
       </c>
       <c r="R1246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247">
@@ -71478,7 +71478,7 @@
         <v>2</v>
       </c>
       <c r="R1268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269">
@@ -71980,7 +71980,7 @@
         <v>1</v>
       </c>
       <c r="R1277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278">
@@ -73924,7 +73924,7 @@
         <v>1</v>
       </c>
       <c r="R1313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314">
@@ -74517,7 +74517,9 @@
       <c r="Q1324" t="n">
         <v>1</v>
       </c>
-      <c r="R1324" t="inlineStr"/>
+      <c r="R1324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1325">
       <c r="A1325" s="2" t="n">
@@ -74569,7 +74571,9 @@
       <c r="Q1325" t="n">
         <v>0</v>
       </c>
-      <c r="R1325" t="inlineStr"/>
+      <c r="R1325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1326">
       <c r="A1326" s="2" t="n">
@@ -74621,7 +74625,9 @@
       <c r="Q1326" t="n">
         <v>0</v>
       </c>
-      <c r="R1326" t="inlineStr"/>
+      <c r="R1326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1327">
       <c r="A1327" s="2" t="n">
@@ -74673,7 +74679,9 @@
       <c r="Q1327" t="n">
         <v>0</v>
       </c>
-      <c r="R1327" t="inlineStr"/>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1328">
       <c r="A1328" s="2" t="n">
@@ -74725,7 +74733,9 @@
       <c r="Q1328" t="n">
         <v>2</v>
       </c>
-      <c r="R1328" t="inlineStr"/>
+      <c r="R1328" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1329">
       <c r="A1329" s="2" t="n">
@@ -74777,7 +74787,9 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1330">
       <c r="A1330" s="2" t="n">
@@ -74829,27 +74841,29 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B1331" t="n">
-        <v>730.3499755859375</v>
+        <v>721.2999877929688</v>
       </c>
       <c r="C1331" t="n">
-        <v>743.9000244140625</v>
+        <v>736.7999877929688</v>
       </c>
       <c r="D1331" t="n">
-        <v>724.5</v>
+        <v>716</v>
       </c>
       <c r="E1331" t="n">
-        <v>731.0999755859375</v>
+        <v>735.5</v>
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="n">
-        <v>1034335</v>
+        <v>811604</v>
       </c>
       <c r="H1331" t="n">
         <v>2025</v>
@@ -74858,7 +74872,7 @@
         <v>2</v>
       </c>
       <c r="J1331" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1331" t="n">
         <v>0</v>
@@ -74882,6 +74896,528 @@
         <v>0</v>
       </c>
       <c r="R1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>730.3499755859375</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>743.9000244140625</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>724.5</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="F1332" t="inlineStr"/>
+      <c r="G1332" t="n">
+        <v>1034335</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>723.0499877929688</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>728.2000122070312</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>716.25</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>720.3499755859375</v>
+      </c>
+      <c r="F1333" t="inlineStr"/>
+      <c r="G1333" t="n">
+        <v>811313</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>716.4500122070312</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>724.3499755859375</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>705.2000122070312</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>710.3499755859375</v>
+      </c>
+      <c r="F1334" t="inlineStr"/>
+      <c r="G1334" t="n">
+        <v>890830</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>710.3499755859375</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>714.7000122070312</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>692</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>694.3499755859375</v>
+      </c>
+      <c r="F1335" t="inlineStr"/>
+      <c r="G1335" t="n">
+        <v>1401348</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>689.9000244140625</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>691.9500122070312</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>661.5499877929688</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>670.9500122070312</v>
+      </c>
+      <c r="F1336" t="inlineStr"/>
+      <c r="G1336" t="n">
+        <v>2521717</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>673.0499877929688</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>680.9000244140625</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>656.0499877929688</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>676.5999755859375</v>
+      </c>
+      <c r="F1337" t="inlineStr"/>
+      <c r="G1337" t="n">
+        <v>1528561</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>674.9500122070312</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>681.5</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>662.2000122070312</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>673.8499755859375</v>
+      </c>
+      <c r="F1338" t="inlineStr"/>
+      <c r="G1338" t="n">
+        <v>1320164</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>673.0499877929688</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>695.9500122070312</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>673.0499877929688</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>695.1500244140625</v>
+      </c>
+      <c r="F1339" t="inlineStr"/>
+      <c r="G1339" t="n">
+        <v>1044963</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>707.0999755859375</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>697</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>702.3499755859375</v>
+      </c>
+      <c r="F1340" t="inlineStr"/>
+      <c r="G1340" t="n">
+        <v>867497</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>701.75</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>711.7000122070312</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>696.8499755859375</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>700.6500244140625</v>
+      </c>
+      <c r="F1341" t="inlineStr"/>
+      <c r="G1341" t="n">
+        <v>1086426</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1341"/>
+  <dimension ref="A1:R1350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74895,7 +74895,9 @@
       <c r="Q1331" t="n">
         <v>0</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1332">
       <c r="A1332" s="2" t="n">
@@ -75001,7 +75003,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75053,7 +75057,9 @@
       <c r="Q1334" t="n">
         <v>0</v>
       </c>
-      <c r="R1334" t="inlineStr"/>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" s="2" t="n">
@@ -75105,7 +75111,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75157,7 +75165,9 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" s="2" t="n">
@@ -75201,7 +75211,7 @@
         <v>10</v>
       </c>
       <c r="O1337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1337" t="n">
         <v>0</v>
@@ -75209,7 +75219,9 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="2" t="n">
@@ -75261,7 +75273,9 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" s="2" t="n">
@@ -75313,7 +75327,9 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" s="2" t="n">
@@ -75365,7 +75381,9 @@
       <c r="Q1340" t="n">
         <v>0</v>
       </c>
-      <c r="R1340" t="inlineStr"/>
+      <c r="R1340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" s="2" t="n">
@@ -75417,7 +75435,477 @@
       <c r="Q1341" t="n">
         <v>0</v>
       </c>
-      <c r="R1341" t="inlineStr"/>
+      <c r="R1341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>703.0499877929688</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>708.5</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>687.8499755859375</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>689.7000122070312</v>
+      </c>
+      <c r="F1342" t="inlineStr"/>
+      <c r="G1342" t="n">
+        <v>845259</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>683</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>694</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>675</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>691.1500244140625</v>
+      </c>
+      <c r="F1343" t="inlineStr"/>
+      <c r="G1343" t="n">
+        <v>814316</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>692</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>699.1500244140625</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>686.0999755859375</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>698.2000122070312</v>
+      </c>
+      <c r="F1344" t="inlineStr"/>
+      <c r="G1344" t="n">
+        <v>645844</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>699</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>703.5</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>687.5999755859375</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>689.0499877929688</v>
+      </c>
+      <c r="F1345" t="inlineStr"/>
+      <c r="G1345" t="n">
+        <v>810061</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>689.2999877929688</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>696.9500122070312</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>687.7999877929688</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>690.6500244140625</v>
+      </c>
+      <c r="F1346" t="inlineStr"/>
+      <c r="G1346" t="n">
+        <v>717347</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>690.6500244140625</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>690.6500244140625</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>690.6500244140625</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>690.6500244140625</v>
+      </c>
+      <c r="F1347" t="inlineStr"/>
+      <c r="G1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>711</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>723</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>707.4000244140625</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>717.6500244140625</v>
+      </c>
+      <c r="F1348" t="inlineStr"/>
+      <c r="G1348" t="n">
+        <v>1111899</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>723.2000122070312</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>725.9000244140625</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>712.1500244140625</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>714.8499755859375</v>
+      </c>
+      <c r="F1349" t="inlineStr"/>
+      <c r="G1349" t="n">
+        <v>1079612</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>716.7000122070312</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>725.7000122070312</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>714</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>722.2000122070312</v>
+      </c>
+      <c r="F1350" t="inlineStr"/>
+      <c r="G1350" t="n">
+        <v>1868281</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1350"/>
+  <dimension ref="A1:R1359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75489,7 +75489,9 @@
       <c r="Q1342" t="n">
         <v>0</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="2" t="n">
@@ -75541,7 +75543,9 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" s="2" t="n">
@@ -75593,7 +75597,9 @@
       <c r="Q1344" t="n">
         <v>0</v>
       </c>
-      <c r="R1344" t="inlineStr"/>
+      <c r="R1344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" s="2" t="n">
@@ -75645,7 +75651,9 @@
       <c r="Q1345" t="n">
         <v>0</v>
       </c>
-      <c r="R1345" t="inlineStr"/>
+      <c r="R1345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" s="2" t="n">
@@ -75697,7 +75705,9 @@
       <c r="Q1346" t="n">
         <v>0</v>
       </c>
-      <c r="R1346" t="inlineStr"/>
+      <c r="R1346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" s="2" t="n">
@@ -75749,7 +75759,9 @@
       <c r="Q1347" t="n">
         <v>0</v>
       </c>
-      <c r="R1347" t="inlineStr"/>
+      <c r="R1347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" s="2" t="n">
@@ -75801,7 +75813,9 @@
       <c r="Q1348" t="n">
         <v>1</v>
       </c>
-      <c r="R1348" t="inlineStr"/>
+      <c r="R1348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" s="2" t="n">
@@ -75853,7 +75867,9 @@
       <c r="Q1349" t="n">
         <v>0</v>
       </c>
-      <c r="R1349" t="inlineStr"/>
+      <c r="R1349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" s="2" t="n">
@@ -75905,7 +75921,477 @@
       <c r="Q1350" t="n">
         <v>0</v>
       </c>
-      <c r="R1350" t="inlineStr"/>
+      <c r="R1350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>730</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>733.5499877929688</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>723.7000122070312</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>726.9500122070312</v>
+      </c>
+      <c r="F1351" t="inlineStr"/>
+      <c r="G1351" t="n">
+        <v>1080209</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>733</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>735.2000122070312</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>714.1500244140625</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>717.1500244140625</v>
+      </c>
+      <c r="F1352" t="inlineStr"/>
+      <c r="G1352" t="n">
+        <v>1418108</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>719</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>721.9500122070312</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>701</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>704.4500122070312</v>
+      </c>
+      <c r="F1353" t="inlineStr"/>
+      <c r="G1353" t="n">
+        <v>1281906</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>703.6500244140625</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>724.8499755859375</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>701.9000244140625</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>718.0499877929688</v>
+      </c>
+      <c r="F1354" t="inlineStr"/>
+      <c r="G1354" t="n">
+        <v>7239201</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>718.0499877929688</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>734.4500122070312</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>718.0499877929688</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>727.5</v>
+      </c>
+      <c r="F1355" t="inlineStr"/>
+      <c r="G1355" t="n">
+        <v>1761132</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>725.1500244140625</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>734.4500122070312</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>716.0499877929688</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>724.25</v>
+      </c>
+      <c r="F1356" t="inlineStr"/>
+      <c r="G1356" t="n">
+        <v>1499170</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>725</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>730.6500244140625</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>712.0999755859375</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>727.4500122070312</v>
+      </c>
+      <c r="F1357" t="inlineStr"/>
+      <c r="G1357" t="n">
+        <v>1594854</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>720</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>739.7999877929688</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>720</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>738.25</v>
+      </c>
+      <c r="F1358" t="inlineStr"/>
+      <c r="G1358" t="n">
+        <v>903058</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>738</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>738</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>709.25</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>714.0999755859375</v>
+      </c>
+      <c r="F1359" t="inlineStr"/>
+      <c r="G1359" t="n">
+        <v>1061163</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1359"/>
+  <dimension ref="A1:R1363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75975,7 +75975,9 @@
       <c r="Q1351" t="n">
         <v>0</v>
       </c>
-      <c r="R1351" t="inlineStr"/>
+      <c r="R1351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" s="2" t="n">
@@ -76027,7 +76029,9 @@
       <c r="Q1352" t="n">
         <v>0</v>
       </c>
-      <c r="R1352" t="inlineStr"/>
+      <c r="R1352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" s="2" t="n">
@@ -76079,7 +76083,9 @@
       <c r="Q1353" t="n">
         <v>0</v>
       </c>
-      <c r="R1353" t="inlineStr"/>
+      <c r="R1353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" s="2" t="n">
@@ -76131,7 +76137,9 @@
       <c r="Q1354" t="n">
         <v>0</v>
       </c>
-      <c r="R1354" t="inlineStr"/>
+      <c r="R1354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" s="2" t="n">
@@ -76183,7 +76191,9 @@
       <c r="Q1355" t="n">
         <v>0</v>
       </c>
-      <c r="R1355" t="inlineStr"/>
+      <c r="R1355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1356">
       <c r="A1356" s="2" t="n">
@@ -76235,7 +76245,9 @@
       <c r="Q1356" t="n">
         <v>0</v>
       </c>
-      <c r="R1356" t="inlineStr"/>
+      <c r="R1356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" s="2" t="n">
@@ -76287,7 +76299,9 @@
       <c r="Q1357" t="n">
         <v>0</v>
       </c>
-      <c r="R1357" t="inlineStr"/>
+      <c r="R1357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" s="2" t="n">
@@ -76339,7 +76353,9 @@
       <c r="Q1358" t="n">
         <v>0</v>
       </c>
-      <c r="R1358" t="inlineStr"/>
+      <c r="R1358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" s="2" t="n">
@@ -76391,7 +76407,217 @@
       <c r="Q1359" t="n">
         <v>0</v>
       </c>
-      <c r="R1359" t="inlineStr"/>
+      <c r="R1359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>656</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>701.9000244140625</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>656</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>697.4000244140625</v>
+      </c>
+      <c r="F1360" t="inlineStr"/>
+      <c r="G1360" t="n">
+        <v>1327614</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>715.9500122070312</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>720</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>704.4000244140625</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>713.9500122070312</v>
+      </c>
+      <c r="F1361" t="inlineStr"/>
+      <c r="G1361" t="n">
+        <v>704550</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>713.4000244140625</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>720.9000244140625</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>707.2000122070312</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>715.2000122070312</v>
+      </c>
+      <c r="F1362" t="inlineStr"/>
+      <c r="G1362" t="n">
+        <v>899960</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>728.3499755859375</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>735.4500122070312</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>721.5</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>730.7000122070312</v>
+      </c>
+      <c r="F1363" t="inlineStr"/>
+      <c r="G1363" t="n">
+        <v>933376</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1363"/>
+  <dimension ref="A1:R1366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76461,7 +76461,9 @@
       <c r="Q1360" t="n">
         <v>0</v>
       </c>
-      <c r="R1360" t="inlineStr"/>
+      <c r="R1360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" s="2" t="n">
@@ -76513,7 +76515,9 @@
       <c r="Q1361" t="n">
         <v>0</v>
       </c>
-      <c r="R1361" t="inlineStr"/>
+      <c r="R1361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" s="2" t="n">
@@ -76565,7 +76569,9 @@
       <c r="Q1362" t="n">
         <v>0</v>
       </c>
-      <c r="R1362" t="inlineStr"/>
+      <c r="R1362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" s="2" t="n">
@@ -76617,7 +76623,165 @@
       <c r="Q1363" t="n">
         <v>0</v>
       </c>
-      <c r="R1363" t="inlineStr"/>
+      <c r="R1363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>745.4000244140625</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>756.4000244140625</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>735.0499877929688</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>754.5</v>
+      </c>
+      <c r="F1364" t="inlineStr"/>
+      <c r="G1364" t="n">
+        <v>1274195</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>760.9500122070312</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>766</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>755.5</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>760.5999755859375</v>
+      </c>
+      <c r="F1365" t="inlineStr"/>
+      <c r="G1365" t="n">
+        <v>1008913</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>759</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>770.75</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>755</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>769.4000244140625</v>
+      </c>
+      <c r="F1366" t="inlineStr"/>
+      <c r="G1366" t="n">
+        <v>973140</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1366"/>
+  <dimension ref="A1:R1375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76453,7 +76453,7 @@
         <v>15</v>
       </c>
       <c r="O1360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1360" t="n">
         <v>0</v>
@@ -76677,7 +76677,9 @@
       <c r="Q1364" t="n">
         <v>0</v>
       </c>
-      <c r="R1364" t="inlineStr"/>
+      <c r="R1364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" s="2" t="n">
@@ -76729,7 +76731,9 @@
       <c r="Q1365" t="n">
         <v>0</v>
       </c>
-      <c r="R1365" t="inlineStr"/>
+      <c r="R1365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" s="2" t="n">
@@ -76781,7 +76785,477 @@
       <c r="Q1366" t="n">
         <v>0</v>
       </c>
-      <c r="R1366" t="inlineStr"/>
+      <c r="R1366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>773.7000122070312</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>779.5999755859375</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>769.6500244140625</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>774.6500244140625</v>
+      </c>
+      <c r="F1367" t="inlineStr"/>
+      <c r="G1367" t="n">
+        <v>749021</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>776</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>779.6500244140625</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>769</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>774.8499755859375</v>
+      </c>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="n">
+        <v>610026</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>778.5499877929688</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>787.0999755859375</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>763</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>784.9500122070312</v>
+      </c>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="n">
+        <v>1228461</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>784.9500122070312</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>785</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>772</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>777.0499877929688</v>
+      </c>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="n">
+        <v>1028891</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>777.2000122070312</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>781.2999877929688</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>748.2000122070312</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>751.8499755859375</v>
+      </c>
+      <c r="F1371" t="inlineStr"/>
+      <c r="G1371" t="n">
+        <v>1352726</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>748.2000122070312</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>767</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>747.5999755859375</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>764.0499877929688</v>
+      </c>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="n">
+        <v>691102</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>765.5</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>773.8499755859375</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>754.8499755859375</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>762.3499755859375</v>
+      </c>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="n">
+        <v>634735</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>760</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>763</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>748</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="n">
+        <v>944632</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>762</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>745.6500244140625</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>748.6500244140625</v>
+      </c>
+      <c r="F1375" t="inlineStr"/>
+      <c r="G1375" t="n">
+        <v>697973</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1375" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/IRCTC.NS.xlsx
+++ b/stock_historical_data/1d/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1375"/>
+  <dimension ref="A1:R1385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76839,7 +76839,9 @@
       <c r="Q1367" t="n">
         <v>0</v>
       </c>
-      <c r="R1367" t="inlineStr"/>
+      <c r="R1367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" s="2" t="n">
@@ -76891,7 +76893,9 @@
       <c r="Q1368" t="n">
         <v>0</v>
       </c>
-      <c r="R1368" t="inlineStr"/>
+      <c r="R1368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" s="2" t="n">
@@ -76935,7 +76939,7 @@
         <v>17</v>
       </c>
       <c r="O1369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1369" t="n">
         <v>0</v>
@@ -76943,7 +76947,9 @@
       <c r="Q1369" t="n">
         <v>0</v>
       </c>
-      <c r="R1369" t="inlineStr"/>
+      <c r="R1369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" s="2" t="n">
@@ -76995,7 +77001,9 @@
       <c r="Q1370" t="n">
         <v>0</v>
       </c>
-      <c r="R1370" t="inlineStr"/>
+      <c r="R1370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" s="2" t="n">
@@ -77047,7 +77055,9 @@
       <c r="Q1371" t="n">
         <v>1</v>
       </c>
-      <c r="R1371" t="inlineStr"/>
+      <c r="R1371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" s="2" t="n">
@@ -77099,7 +77109,9 @@
       <c r="Q1372" t="n">
         <v>0</v>
       </c>
-      <c r="R1372" t="inlineStr"/>
+      <c r="R1372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1373">
       <c r="A1373" s="2" t="n">
@@ -77151,7 +77163,9 @@
       <c r="Q1373" t="n">
         <v>0</v>
       </c>
-      <c r="R1373" t="inlineStr"/>
+      <c r="R1373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1374">
       <c r="A1374" s="2" t="n">
@@ -77203,7 +77217,9 @@
       <c r="Q1374" t="n">
         <v>0</v>
       </c>
-      <c r="R1374" t="inlineStr"/>
+      <c r="R1374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1375">
       <c r="A1375" s="2" t="n">
@@ -77255,7 +77271,529 @@
       <c r="Q1375" t="n">
         <v>0</v>
       </c>
-      <c r="R1375" t="inlineStr"/>
+      <c r="R1375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>750</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>766.9500122070312</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>749.9500122070312</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>765.4500122070312</v>
+      </c>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="n">
+        <v>886401</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>765.4500122070312</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>766.9500122070312</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>734.3499755859375</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>736.75</v>
+      </c>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="n">
+        <v>1029627</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>728.8499755859375</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>745</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>725.6500244140625</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>741.5</v>
+      </c>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="n">
+        <v>989272</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>745</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>750</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>727.9500122070312</v>
+      </c>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="n">
+        <v>766498</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>707.9500122070312</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>725</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>706.25</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>722.5499877929688</v>
+      </c>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="n">
+        <v>1024950</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1380" t="inlineStr"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>740.5</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>764.9500122070312</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>737.3499755859375</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>763.4500122070312</v>
+      </c>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="n">
+        <v>1196460</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1381" t="inlineStr"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>764</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>772.75</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>762.5499877929688</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>764</v>
+      </c>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="n">
+        <v>892363</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>765</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>781.75</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>762.4000244140625</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>777.9000244140625</v>
+      </c>
+      <c r="F1383" t="inlineStr"/>
+      <c r="G1383" t="n">
+        <v>1224784</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>779</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>789.4000244140625</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>776.2999877929688</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>785.7000122070312</v>
+      </c>
+      <c r="F1384" t="inlineStr"/>
+      <c r="G1384" t="n">
+        <v>1287971</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>785.7000122070312</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>815</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>784</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>809.0499877929688</v>
+      </c>
+      <c r="F1385" t="inlineStr"/>
+      <c r="G1385" t="n">
+        <v>3068913</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1385" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
